--- a/data_ingest/ipeds/dictionaries/gr2022.xlsx
+++ b/data_ingest/ipeds/dictionaries/gr2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhie\OneDrive - Northeastern University\ALY6980\ipedsllm\data_ingest\ipeds\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F06EFA0-BE91-4D54-B83E-A7AF486B69CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117FE9A6-62C8-4883-BAA0-6264B6E82996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="282">
   <si>
     <t>varnumber</t>
   </si>
@@ -126,268 +126,178 @@
     <t>GRTOTLT</t>
   </si>
   <si>
-    <t>XGRTOTLT</t>
-  </si>
-  <si>
     <t>Grand total</t>
   </si>
   <si>
     <t>GRTOTLM</t>
   </si>
   <si>
-    <t>XGRTOTLM</t>
-  </si>
-  <si>
     <t>Total men</t>
   </si>
   <si>
     <t>GRTOTLW</t>
   </si>
   <si>
-    <t>XGRTOTLW</t>
-  </si>
-  <si>
     <t>Total women</t>
   </si>
   <si>
     <t>GRAIANT</t>
   </si>
   <si>
-    <t>XGRAIANT</t>
-  </si>
-  <si>
     <t>American Indian or Alaska Native total</t>
   </si>
   <si>
     <t>GRAIANM</t>
   </si>
   <si>
-    <t>XGRAIANM</t>
-  </si>
-  <si>
     <t>American Indian or Alaska Native men</t>
   </si>
   <si>
     <t>GRAIANW</t>
   </si>
   <si>
-    <t>XGRAIANW</t>
-  </si>
-  <si>
     <t>American Indian or Alaska Native women</t>
   </si>
   <si>
     <t>GRASIAT</t>
   </si>
   <si>
-    <t>XGRASIAT</t>
-  </si>
-  <si>
     <t>Asian total</t>
   </si>
   <si>
     <t>GRASIAM</t>
   </si>
   <si>
-    <t>XGRASIAM</t>
-  </si>
-  <si>
     <t>Asian men</t>
   </si>
   <si>
     <t>GRASIAW</t>
   </si>
   <si>
-    <t>XGRASIAW</t>
-  </si>
-  <si>
     <t>Asian women</t>
   </si>
   <si>
     <t>GRBKAAT</t>
   </si>
   <si>
-    <t>XGRBKAAT</t>
-  </si>
-  <si>
     <t>Black or African American total</t>
   </si>
   <si>
     <t>GRBKAAM</t>
   </si>
   <si>
-    <t>XGRBKAAM</t>
-  </si>
-  <si>
     <t>Black or African American men</t>
   </si>
   <si>
     <t>GRBKAAW</t>
   </si>
   <si>
-    <t>XGRBKAAW</t>
-  </si>
-  <si>
     <t>Black or African American women</t>
   </si>
   <si>
     <t>GRHISPT</t>
   </si>
   <si>
-    <t>XGRHISPT</t>
-  </si>
-  <si>
     <t>Hispanic total</t>
   </si>
   <si>
     <t>GRHISPM</t>
   </si>
   <si>
-    <t>XGRHISPM</t>
-  </si>
-  <si>
     <t>Hispanic men</t>
   </si>
   <si>
     <t>GRHISPW</t>
   </si>
   <si>
-    <t>XGRHISPW</t>
-  </si>
-  <si>
     <t>Hispanic women</t>
   </si>
   <si>
     <t>GRNHPIT</t>
   </si>
   <si>
-    <t>XGRNHPIT</t>
-  </si>
-  <si>
     <t>Native Hawaiian or Other Pacific Islander total</t>
   </si>
   <si>
     <t>GRNHPIM</t>
   </si>
   <si>
-    <t>XGRNHPIM</t>
-  </si>
-  <si>
     <t>Native Hawaiian or Other Pacific Islander men</t>
   </si>
   <si>
     <t>GRNHPIW</t>
   </si>
   <si>
-    <t>XGRNHPIW</t>
-  </si>
-  <si>
     <t>Native Hawaiian or Other Pacific Islander women</t>
   </si>
   <si>
     <t>GRWHITT</t>
   </si>
   <si>
-    <t>XGRWHITT</t>
-  </si>
-  <si>
     <t>White total</t>
   </si>
   <si>
     <t>GRWHITM</t>
   </si>
   <si>
-    <t>XGRWHITM</t>
-  </si>
-  <si>
     <t>White men</t>
   </si>
   <si>
     <t>GRWHITW</t>
   </si>
   <si>
-    <t>XGRWHITW</t>
-  </si>
-  <si>
     <t>White women</t>
   </si>
   <si>
     <t>GR2MORT</t>
   </si>
   <si>
-    <t>XGR2MORT</t>
-  </si>
-  <si>
     <t>Two or more races total</t>
   </si>
   <si>
     <t>GR2MORM</t>
   </si>
   <si>
-    <t>XGR2MORM</t>
-  </si>
-  <si>
     <t>Two or more races men</t>
   </si>
   <si>
     <t>GR2MORW</t>
   </si>
   <si>
-    <t>XGR2MORW</t>
-  </si>
-  <si>
     <t>Two or more races women</t>
   </si>
   <si>
     <t>GRUNKNT</t>
   </si>
   <si>
-    <t>XGRUNKNT</t>
-  </si>
-  <si>
     <t>Race/ethnicity unknown total</t>
   </si>
   <si>
     <t>GRUNKNM</t>
   </si>
   <si>
-    <t>XGRUNKNM</t>
-  </si>
-  <si>
     <t>Race/ethnicity unknown men</t>
   </si>
   <si>
     <t>GRUNKNW</t>
   </si>
   <si>
-    <t>XGRUNKNW</t>
-  </si>
-  <si>
     <t>Race/ethnicity unknown women</t>
   </si>
   <si>
     <t>GRNRALT</t>
   </si>
   <si>
-    <t>XGRNRALT</t>
-  </si>
-  <si>
     <t>U.S. Nonresident total</t>
   </si>
   <si>
     <t>GRNRALM</t>
   </si>
   <si>
-    <t>XGRNRALM</t>
-  </si>
-  <si>
     <t>U.S. Nonresident men</t>
   </si>
   <si>
     <t>GRNRALW</t>
-  </si>
-  <si>
-    <t>XGRNRALW</t>
   </si>
   <si>
     <t>U.S. Nonresident women</t>
@@ -535,288 +445,141 @@
     <t>40</t>
   </si>
   <si>
-    <t>Total exclusions 4-year schools</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>4-year institutions, Adjusted cohort (revised cohort minus exclusions)</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4-year institutions, Completers within 150% of normal time</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>4-year institutions, Transfer-out students</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t>4-year institutions, noncompleters still enrolled</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
-    <t>4-year institutions, No longer enrolled</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution)</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) exclusions</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) adjusted cohort (revised cohort minus exclusions)</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Completers within 150% of normal time total</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Completers of programs of &lt; 2 yrs (150% of normal time)</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Completers of programs of 2 but &lt;4 yrs (150% of normal time)</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Completers of bachelor's or equiv degrees total (150% of normal time)</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Completers of bachelor's or equiv degrees in 4 years or less</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Completers of bachelor's or equiv degrees in 5 years</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Completers of bachelor's or equiv degrees in 6 years</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) Transfer-out students</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution) noncompleters still enrolled</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t>Bachelor's or equiv subcohort (4-yr institution), No longer enrolled</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution)</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>Other degree/certificate-seeking subcohort(4-yr institution) exclusions</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) Adjusted cohort (revised cohort minus exclusions)</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) Completers within 150% of normal time total</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) Completers of programs &lt; 2 yrs (150% of normal time)</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) Completers of programs of 2 but &lt; 4 yrs (150% of normal time)</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) Completers of bachelor's or equiv degrees (150% of normal time)</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) Transfer-out students</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) noncompleters still enrolled</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
-    <t>Other degree/certif-seeking subcohort (4-yr institution) No longer enrolled</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
-    <t>Degree/certificate-seeking subcohort(2-yr institution) exclusions</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) Adjusted cohort (revised cohort minus exclusions)</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) Completers within 150% of normal time total</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) Completers of programs of &lt; 2 yrs (150% of normal time)</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>Degree/certificate-seeking students ( 2-yr institution) Completers of programs of 2 but &lt; 4 yrs (150% of normal time)</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) Completers within 100% of normal time total</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) Completers of programs of &lt; 2 yrs (100% of normal time)</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>Degree/certificate-seeking students ( 2-yr institution) Completers of programs of 2 but &lt; 4 yrs (100% of normal time)</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) Transfer-out students</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) noncompleters still enrolled</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
-    <t>Degree/certif-seeking students ( 2-yr institution) No longer enrolled</t>
-  </si>
-  <si>
     <t>Revised cohort</t>
   </si>
   <si>
     <t>Exclusions</t>
   </si>
   <si>
-    <t>Adjusted cohort (revised cohort minus exclusions)</t>
-  </si>
-  <si>
     <t>Completers within 150% of normal time</t>
   </si>
   <si>
-    <t>Completers of programs of less than 2 years (150% of normal time)</t>
-  </si>
-  <si>
-    <t>Completers of programs of 2 but less than 4 years (150% of normal time)</t>
-  </si>
-  <si>
     <t>Completers of bachelor's or equivalent degrees (150% of normal time)</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Completers of bachelor's or equivalent degrees in 4 years or less</t>
-  </si>
-  <si>
-    <t>Completers of bachelor's or equivalent degrees in 5 years</t>
-  </si>
-  <si>
-    <t>Completers of bachelor's or equivalent degrees in 6 years</t>
-  </si>
-  <si>
     <t>Transfer-out students</t>
   </si>
   <si>
-    <t>Completers of programs within 100% of normal time total</t>
-  </si>
-  <si>
-    <t>Completers of programs of &lt; 2 yrs within 100% of normal time (not available by race or gender)</t>
-  </si>
-  <si>
-    <t>Completers of programs of 2 but &lt; 4 yrs within 100% of normal time (not available by race or gender)</t>
-  </si>
-  <si>
     <t>Noncompleters, still enrolled</t>
   </si>
   <si>
@@ -826,27 +589,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Bachelor's/ equiv +  other degree/certif-seeking 2015 subcohort (4-yr institution)</t>
-  </si>
-  <si>
-    <t>Bachelor's or equiv 2015 subcohort (4-yr institution)</t>
-  </si>
-  <si>
-    <t>Other degree/certif-seeking 2015 subcohort (4-yr institution)</t>
-  </si>
-  <si>
-    <t>Degree/certif-seeking students 2018 cohort ( 2-yr )</t>
-  </si>
-  <si>
-    <t>Bachelor's/ equiv +  other degree/certif-seeking 2015 subcohorts (4-yr institution)</t>
-  </si>
-  <si>
-    <t>Bachelor's or equiv 2015  subcohort (4-yr institution)</t>
-  </si>
-  <si>
-    <t>Degree/certif-seeking students 2018 cohort ( 2-yr institution)</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -871,21 +613,12 @@
     <t>57</t>
   </si>
   <si>
-    <t>Completers of programs within 100% of normal time total (not available by race or gender)</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
-    <t>Completers of programs of less than 2 years within 100% of normal time (not available by race or gender)</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
-    <t>Completers of programs of 2 but less than 4 years within 100% of normal time (not available by race or gender)</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -988,10 +721,214 @@
     <t>TableDescription</t>
   </si>
   <si>
-    <t>"This table contains the graduation rate status as of August 31, 2022, for the cohort of full-time, first-time degree/certificate-seeking undergraduates in both four-year and two-year institutions."</t>
-  </si>
-  <si>
     <t>gr2022</t>
+  </si>
+  <si>
+    <t>Institutions with a duration of four years, students who transfer out</t>
+  </si>
+  <si>
+    <t>Completers within 150% of normal time at four year institutions.</t>
+  </si>
+  <si>
+    <t>Adjusted cohort refers to four year institutions, which are calculated by subtracting exclusions from the revised cohort.</t>
+  </si>
+  <si>
+    <t>Exclusions in total for four year schools.</t>
+  </si>
+  <si>
+    <t>Non-completers still enrolled at four year institutions.</t>
+  </si>
+  <si>
+    <t>Institutions that typically require four years of study, not currently enrolled</t>
+  </si>
+  <si>
+    <t>Subcohort with a Bachelor's degree or its equivalent from a four year institution.</t>
+  </si>
+  <si>
+    <t>Exclusions for Bachelor's degree holders or equivalent subcohorts (from four year institutions).</t>
+  </si>
+  <si>
+    <t>Adjusted cohort (revised cohort minus exclusions) for Bachelor's or equivalent subcohort at four year institutions.</t>
+  </si>
+  <si>
+    <t>Total number of bachelor's degree completers or equivalent within the subcohort of four year institutions who graduated within 150% of the normal time.</t>
+  </si>
+  <si>
+    <t>Completers of bachelor's degrees or equivalent subcohort at four year institutions who finished programs in less than 2 years (150% of the normal time).</t>
+  </si>
+  <si>
+    <t>Completers of Bachelor's or equivalent subcohort programs at four year institutions within a timeframe of 2 years but less than 4 years (150% of the normal time).</t>
+  </si>
+  <si>
+    <t>Completers of bachelor's degrees or their equivalents from four-year institutions, within 150% of the normal time.</t>
+  </si>
+  <si>
+    <t>Completers of bachelor's degrees or their equivalents from four year institutions in four years or less.</t>
+  </si>
+  <si>
+    <t>Completers of bachelor's degrees or their equivalents from four year institutions within a five year timeframe.</t>
+  </si>
+  <si>
+    <t>Completers of bachelor's degrees or their equivalents from four year institutions within six years.</t>
+  </si>
+  <si>
+    <t>Transfer-out students from a Bachelor's degree program or its equivalent at a four year institution.</t>
+  </si>
+  <si>
+    <t>Non-completers of bachelor's degrees or their equivalent at four year institutions are still enrolled.</t>
+  </si>
+  <si>
+    <t>Subcohort with a Bachelor's degree or equivalent from a four year institution, no longer enrolled.</t>
+  </si>
+  <si>
+    <t>Subcohort seeking other degrees or certifications within a four year institution.</t>
+  </si>
+  <si>
+    <t>Exclusions for other subcohorts seeking degrees or certificates at four year institutions.</t>
+  </si>
+  <si>
+    <t>Adjusted cohort at a four year institution seeking other degrees or certifications, which refers to the revised cohort after exclusions are subtracted.</t>
+  </si>
+  <si>
+    <t>Completers within the 150% of the normal time who are seeking other degrees or certifications from four year institutions total.</t>
+  </si>
+  <si>
+    <t>Completers of programs at four year institutions who are seeking other degrees or certificates and finish within less than two years (150% of the normal time).</t>
+  </si>
+  <si>
+    <t>Completers of programs lasting between two and less than four years who are seeking other degrees or certifications within the subcohort at four year institutions.</t>
+  </si>
+  <si>
+    <t>Completers of bachelor's degrees or equivalent within the other degree or certificate-seeking subcohort at four year institutions, within 150% of the normal time.</t>
+  </si>
+  <si>
+    <t>Transfer-out students from the subcohort seeking other degrees or certificates at four year institutions.</t>
+  </si>
+  <si>
+    <t>Still enrolled are other subcohorts seeking degrees or certifications at four year institutions but have not completed them.</t>
+  </si>
+  <si>
+    <t>Subcohort seeking other degrees or certifications at afour year institution is no longer enrolled.</t>
+  </si>
+  <si>
+    <t>Exclusions for degree or certificate-seeking subcohorts at two year institutions.</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certificates at a two year institution and an adjusted cohort, which is the revised cohort minus exclusions.</t>
+  </si>
+  <si>
+    <t>Total completers seeking degrees or certificates at a 2-year institution within 150% of the normal time.</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certifications at a two-year institution and those who complete programs in less than two years (within 150% of the normal time).</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certificates at a two-year institution, who successfully complete programs lasting between two and less than four years (within 150% of the normal time).</t>
+  </si>
+  <si>
+    <t>Degree or certificate-seeking students at a two-year institution who complete their programs within 100% of the normal time total.</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certificates at a two-year institution. Completers of programs lasting less than two years, achieved within 100% of the normal time.</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certificates at a two-year institution. Those who complete programs lasting between two and less than four years within the standard timeframe of 100%.</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certifications at a two-year institution and students transferring out.</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certificates at a two-year institution who have not completed their programs are still enrolled.</t>
+  </si>
+  <si>
+    <t>Students seeking degrees or certificates at a two-year institution are no longer enrolled.</t>
+  </si>
+  <si>
+    <t>The adjusted cohort is derived by subtracting exclusions from the revised cohort.</t>
+  </si>
+  <si>
+    <t>Students who complete their studies within 150% of the standard time.</t>
+  </si>
+  <si>
+    <t>Participants who complete programs lasting less than two years (equivalent to 150% of the normal duration).</t>
+  </si>
+  <si>
+    <t>Individuals who have completed programs lasting between 2 and less than 4 years, which represent 150% of the normal completion time.</t>
+  </si>
+  <si>
+    <t>Those who have completed bachelor's degrees or their equivalents within 150% of the normal time.</t>
+  </si>
+  <si>
+    <t>Individuals who complete bachelor's degrees or their equivalents in four years or fewer.</t>
+  </si>
+  <si>
+    <t>Individuals who complete bachelor's degrees or their equivalents within a period of five years.</t>
+  </si>
+  <si>
+    <t>Bachelor's degrees or their equivalent completed within six years.</t>
+  </si>
+  <si>
+    <t>The total number of program completers within 100% of the normal time.</t>
+  </si>
+  <si>
+    <t>Participants who complete programs lasting less than two years within 100% of the standard time (with no data available by race or gender).</t>
+  </si>
+  <si>
+    <t>Individuals who complete programs lasting between 2 and fewer than 4 years within the normal timeframe of 100%, without distinctions based on race or gender.</t>
+  </si>
+  <si>
+    <t>Seeking a bachelor's degree or its equivalent, the 2015 subcohort attending a four-year institution also pursues other degrees or certifications.</t>
+  </si>
+  <si>
+    <t>Bachelor's degree or its equivalent, 2015 subcohort (four year institution).</t>
+  </si>
+  <si>
+    <t>Subcohort of individuals seeking degrees or certifications in 2015 from a four year institution.</t>
+  </si>
+  <si>
+    <t>Seeking a degree or certification, the 2018 cohort of students is enrolled in a two year program.</t>
+  </si>
+  <si>
+    <t>Seeking a Bachelor's degree or its equivalent, along with other degrees or certifications, the 2015 subcohorts at four-year institutions.</t>
+  </si>
+  <si>
+    <t>2015 Bachelor's degree or equivalent subcohort from a four year institution.</t>
+  </si>
+  <si>
+    <t>2015 subcohort seeking other degrees or certifications at a four year institution.</t>
+  </si>
+  <si>
+    <t>Seeking students in the 2018 cohort pursuing degrees or certificates at a two-year institution.</t>
+  </si>
+  <si>
+    <t>The adjusted cohort is obtained by subtracting exclusions from the revised cohort.</t>
+  </si>
+  <si>
+    <t>Completers of programs of less than two years (150% of normal time)</t>
+  </si>
+  <si>
+    <t>Individuals who have completed programs lasting more than two years but less than four years (150% of the normal time).</t>
+  </si>
+  <si>
+    <t>Individuals who complete bachelor's degrees or their equivalent in four years or fewer.</t>
+  </si>
+  <si>
+    <t>Individuals who complete bachelor's degrees or their equivalent within five years.</t>
+  </si>
+  <si>
+    <t>Individuals who complete bachelor's or equivalent degrees within six years.</t>
+  </si>
+  <si>
+    <t>Program completers within 100% of the standard timeframe are not categorized by race or gender.</t>
+  </si>
+  <si>
+    <t>Those who complete programs lasting less than two years within 100% of the normal timeframe (without regard to race or gender).</t>
+  </si>
+  <si>
+    <t>Individuals who complete programs lasting between two and less than four years within 100% of the normal time (information not available by race or gender).</t>
+  </si>
+  <si>
+    <t>"The table provides detailed information of graduated students based on demographic and cohort-specific data for an institution, including unique identification numbers, cohort information, graduation rate statuses, survey form sections, and various demographic breakdowns. It enumerates totals for men, women, and specific racial/ethnic groups such as American Indian or Alaska Native, Asian, Black or African American, Hispanic, Native Hawaiian or Other Pacific Islander, White, Two or more races, and Race/ethnicity unknown, along with totals for U.S. Nonresidents. The data is segmented by cohort and includes original line numbers from survey forms, allowing for comprehensive analysis of graduation rates across different demographic categories within the institution."</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1360,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1435,18 +1372,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -1468,8 +1405,8 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -1660,11 +1597,9 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1672,7 +1607,7 @@
         <v>80251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1683,11 +1618,9 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1695,7 +1628,7 @@
         <v>80256</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -1706,11 +1639,9 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1718,7 +1649,7 @@
         <v>81176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1729,11 +1660,9 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1741,7 +1670,7 @@
         <v>81111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1752,11 +1681,9 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1764,7 +1691,7 @@
         <v>81116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1775,11 +1702,9 @@
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1787,7 +1712,7 @@
         <v>81181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1798,11 +1723,9 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1810,7 +1733,7 @@
         <v>81121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1821,11 +1744,9 @@
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1833,7 +1754,7 @@
         <v>81126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1844,11 +1765,9 @@
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1856,7 +1775,7 @@
         <v>81186</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -1867,11 +1786,9 @@
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1879,7 +1796,7 @@
         <v>81131</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1890,11 +1807,9 @@
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1902,7 +1817,7 @@
         <v>81136</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -1913,11 +1828,9 @@
       <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1925,7 +1838,7 @@
         <v>81171</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
@@ -1936,11 +1849,9 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1948,7 +1859,7 @@
         <v>81101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1959,11 +1870,9 @@
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1971,7 +1880,7 @@
         <v>81106</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -1982,11 +1891,9 @@
       <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -1994,7 +1901,7 @@
         <v>81191</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -2005,11 +1912,9 @@
       <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2017,7 +1922,7 @@
         <v>81141</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -2028,11 +1933,9 @@
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2040,7 +1943,7 @@
         <v>81146</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -2051,11 +1954,9 @@
       <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2063,7 +1964,7 @@
         <v>81196</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -2074,11 +1975,9 @@
       <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2086,7 +1985,7 @@
         <v>81151</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -2097,11 +1996,9 @@
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2109,7 +2006,7 @@
         <v>81156</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -2120,11 +2017,9 @@
       <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2132,7 +2027,7 @@
         <v>81201</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -2143,11 +2038,9 @@
       <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2155,7 +2048,7 @@
         <v>81161</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -2166,11 +2059,9 @@
       <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2178,7 +2069,7 @@
         <v>81166</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
@@ -2189,11 +2080,9 @@
       <c r="E31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2201,7 +2090,7 @@
         <v>80291</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -2212,11 +2101,9 @@
       <c r="E32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2224,7 +2111,7 @@
         <v>80241</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -2235,11 +2122,9 @@
       <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2247,7 +2132,7 @@
         <v>80246</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -2258,11 +2143,9 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2270,7 +2153,7 @@
         <v>80261</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -2281,11 +2164,9 @@
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2293,7 +2174,7 @@
         <v>80181</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
@@ -2304,11 +2185,9 @@
       <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -2316,7 +2195,7 @@
         <v>80186</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -2327,11 +2206,9 @@
       <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -3229,7 +3106,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3438,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3460,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,7 +3392,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3523,10 +3400,10 @@
         <v>80251</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3534,10 +3411,10 @@
         <v>80256</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.25">
@@ -3545,10 +3422,10 @@
         <v>81176</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.25">
@@ -3556,10 +3433,10 @@
         <v>81111</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.25">
@@ -3567,10 +3444,10 @@
         <v>81116</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.25">
@@ -3578,10 +3455,10 @@
         <v>81181</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.25">
@@ -3589,10 +3466,10 @@
         <v>81121</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="40.799999999999997" x14ac:dyDescent="0.25">
@@ -3600,10 +3477,10 @@
         <v>81126</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3611,10 +3488,10 @@
         <v>81186</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3622,10 +3499,10 @@
         <v>81131</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3633,10 +3510,10 @@
         <v>81136</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3644,10 +3521,10 @@
         <v>81171</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3655,10 +3532,10 @@
         <v>81101</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3666,10 +3543,10 @@
         <v>81106</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3677,10 +3554,10 @@
         <v>81191</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3688,10 +3565,10 @@
         <v>81141</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3699,10 +3576,10 @@
         <v>81146</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3710,10 +3587,10 @@
         <v>81196</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3721,10 +3598,10 @@
         <v>81151</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3732,10 +3609,10 @@
         <v>81156</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3743,10 +3620,10 @@
         <v>81201</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3754,10 +3631,10 @@
         <v>81161</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3765,10 +3642,10 @@
         <v>81166</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3776,10 +3653,10 @@
         <v>80291</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3787,10 +3664,10 @@
         <v>80241</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
@@ -3798,10 +3675,10 @@
         <v>80246</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="71.400000000000006" x14ac:dyDescent="0.25">
@@ -3809,10 +3686,10 @@
         <v>80261</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="71.400000000000006" x14ac:dyDescent="0.25">
@@ -3820,10 +3697,10 @@
         <v>80181</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="71.400000000000006" x14ac:dyDescent="0.25">
@@ -3831,86 +3708,12 @@
         <v>80186</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -3924,7 +3727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3932,7 +3735,7 @@
     <col min="1" max="1" width="13" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="102.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="150.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="8.109375" style="12" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="1"/>
@@ -3946,16 +3749,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3966,10 +3769,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="E2" s="8">
         <v>597</v>
@@ -3986,10 +3789,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="E3" s="8">
         <v>2287</v>
@@ -4006,10 +3809,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="E4" s="8">
         <v>2241</v>
@@ -4026,10 +3829,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="E5" s="8">
         <v>1438</v>
@@ -4046,10 +3849,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="E6" s="8">
         <v>1589</v>
@@ -4066,10 +3869,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="E7" s="8">
         <v>2175</v>
@@ -4086,10 +3889,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="E8" s="8">
         <v>2022</v>
@@ -4106,10 +3909,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="E9" s="8">
         <v>525</v>
@@ -4126,10 +3929,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="E10" s="8">
         <v>2022</v>
@@ -4146,10 +3949,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="E11" s="8">
         <v>1968</v>
@@ -4166,10 +3969,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="E12" s="8">
         <v>90</v>
@@ -4186,10 +3989,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="E13" s="8">
         <v>499</v>
@@ -4206,10 +4009,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="E14" s="8">
         <v>1946</v>
@@ -4226,10 +4029,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="E15" s="8">
         <v>1878</v>
@@ -4246,10 +4049,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="E16" s="8">
         <v>1738</v>
@@ -4266,10 +4069,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="E17" s="8">
         <v>1495</v>
@@ -4286,10 +4089,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="E18" s="8">
         <v>1229</v>
@@ -4306,10 +4109,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="E19" s="8">
         <v>1372</v>
@@ -4326,10 +4129,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="E20" s="8">
         <v>1897</v>
@@ -4346,10 +4149,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="E21" s="8">
         <v>945</v>
@@ -4366,10 +4169,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="E22" s="8">
         <v>100</v>
@@ -4386,10 +4189,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="E23" s="8">
         <v>945</v>
@@ -4406,10 +4209,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="E24" s="8">
         <v>866</v>
@@ -4426,10 +4229,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="E25" s="8">
         <v>414</v>
@@ -4446,10 +4249,10 @@
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="E26" s="8">
         <v>732</v>
@@ -4466,10 +4269,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="E27" s="8">
         <v>435</v>
@@ -4486,10 +4289,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="E28" s="8">
         <v>512</v>
@@ -4506,10 +4309,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="E29" s="8">
         <v>408</v>
@@ -4526,10 +4329,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="E30" s="8">
         <v>847</v>
@@ -4546,10 +4349,10 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="E31" s="8">
         <v>158</v>
@@ -4566,10 +4369,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="E32" s="8">
         <v>1497</v>
@@ -4586,10 +4389,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="E33" s="8">
         <v>1487</v>
@@ -4606,10 +4409,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="E34" s="8">
         <v>1343</v>
@@ -4626,10 +4429,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="E35" s="8">
         <v>1182</v>
@@ -4646,10 +4449,10 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="E36" s="8">
         <v>1467</v>
@@ -4666,10 +4469,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E37" s="8">
         <v>1283</v>
@@ -4686,10 +4489,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E38" s="8">
         <v>1134</v>
@@ -4706,10 +4509,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="E39" s="8">
         <v>933</v>
@@ -4726,10 +4529,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="E40" s="8">
         <v>1023</v>
@@ -4746,10 +4549,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="E41" s="8">
         <v>1432</v>
@@ -4766,10 +4569,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="E42" s="8">
         <v>2967</v>
@@ -4786,10 +4589,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="E43" s="8">
         <v>1380</v>
@@ -4806,10 +4609,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E44" s="8">
         <v>6751</v>
@@ -4826,10 +4629,10 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E45" s="8">
         <v>6562</v>
@@ -4846,10 +4649,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E46" s="8">
         <v>1847</v>
@@ -4866,10 +4669,10 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E47" s="8">
         <v>2413</v>
@@ -4886,10 +4689,10 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E48" s="8">
         <v>2381</v>
@@ -4906,10 +4709,10 @@
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="E49" s="8">
         <v>1878</v>
@@ -4926,10 +4729,10 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E50" s="8">
         <v>1738</v>
@@ -4946,10 +4749,10 @@
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E51" s="8">
         <v>1495</v>
@@ -4966,10 +4769,10 @@
         <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="E52" s="8">
         <v>4112</v>
@@ -4986,10 +4789,10 @@
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E53" s="8">
         <v>1467</v>
@@ -5006,10 +4809,10 @@
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="E54" s="8">
         <v>1283</v>
@@ -5026,10 +4829,10 @@
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="E55" s="8">
         <v>1134</v>
@@ -5046,10 +4849,10 @@
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="E56" s="8">
         <v>4392</v>
@@ -5066,10 +4869,10 @@
         <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="E57" s="8">
         <v>6351</v>
@@ -5086,10 +4889,10 @@
         <v>17</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="E58" s="8">
         <v>10327</v>
@@ -5106,10 +4909,10 @@
         <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="E59" s="8">
         <v>18681</v>
@@ -5126,10 +4929,10 @@
         <v>17</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="E60" s="8">
         <v>6204</v>
@@ -5146,10 +4949,10 @@
         <v>17</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="E61" s="8">
         <v>12939</v>
@@ -5166,10 +4969,10 @@
         <v>19</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="E62" s="8">
         <v>10327</v>
@@ -5186,10 +4989,10 @@
         <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E63" s="8">
         <v>18681</v>
@@ -5206,10 +5009,10 @@
         <v>19</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="E64" s="8">
         <v>6204</v>
@@ -5226,10 +5029,10 @@
         <v>19</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E65" s="8">
         <v>12939</v>
@@ -5246,10 +5049,10 @@
         <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="E66" s="8">
         <v>2967</v>
@@ -5266,10 +5069,10 @@
         <v>21</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="E67" s="8">
         <v>783</v>
@@ -5286,10 +5089,10 @@
         <v>21</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="E68" s="8">
         <v>4464</v>
@@ -5306,10 +5109,10 @@
         <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="E69" s="8">
         <v>4321</v>
@@ -5326,10 +5129,10 @@
         <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="E70" s="8">
         <v>1847</v>
@@ -5346,10 +5149,10 @@
         <v>21</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E71" s="8">
         <v>2413</v>
@@ -5366,10 +5169,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="E72" s="8">
         <v>2381</v>
@@ -5386,10 +5189,10 @@
         <v>21</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="E73" s="8">
         <v>1878</v>
@@ -5406,10 +5209,10 @@
         <v>21</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="E74" s="8">
         <v>1738</v>
@@ -5426,10 +5229,10 @@
         <v>21</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="E75" s="8">
         <v>1495</v>
@@ -5446,10 +5249,10 @@
         <v>21</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="E76" s="8">
         <v>2674</v>
@@ -5466,10 +5269,10 @@
         <v>21</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="E77" s="8">
         <v>10327</v>
@@ -5486,10 +5289,10 @@
         <v>21</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="E78" s="8">
         <v>1467</v>
@@ -5506,10 +5309,10 @@
         <v>21</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E79" s="8">
         <v>1283</v>
@@ -5526,10 +5329,10 @@
         <v>21</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E80" s="8">
         <v>1134</v>
@@ -5546,10 +5349,10 @@
         <v>21</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="E81" s="8">
         <v>2803</v>
@@ -5566,10 +5369,10 @@
         <v>21</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="E82" s="8">
         <v>4176</v>
@@ -11042,19 +10845,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -11083,7 +10886,7 @@
         <v>11435</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11091,7 +10894,7 @@
         <v>80251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8">
         <v>44267</v>
@@ -11109,7 +10912,7 @@
         <v>5907</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11117,7 +10920,7 @@
         <v>80256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8">
         <v>44267</v>
@@ -11135,7 +10938,7 @@
         <v>5528</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11143,7 +10946,7 @@
         <v>81176</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8">
         <v>44267</v>
@@ -11161,7 +10964,7 @@
         <v>242</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11169,7 +10972,7 @@
         <v>81111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="8">
         <v>44267</v>
@@ -11187,7 +10990,7 @@
         <v>123</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11195,7 +10998,7 @@
         <v>81116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="8">
         <v>44267</v>
@@ -11213,7 +11016,7 @@
         <v>171</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11221,7 +11024,7 @@
         <v>81181</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8">
         <v>44267</v>
@@ -11239,7 +11042,7 @@
         <v>2394</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11247,7 +11050,7 @@
         <v>81121</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" s="8">
         <v>44267</v>
@@ -11265,7 +11068,7 @@
         <v>1178</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11273,7 +11076,7 @@
         <v>81126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8">
         <v>44267</v>
@@ -11291,7 +11094,7 @@
         <v>1216</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11299,7 +11102,7 @@
         <v>81186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8">
         <v>44267</v>
@@ -11317,7 +11120,7 @@
         <v>2345</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11325,7 +11128,7 @@
         <v>81131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8">
         <v>44267</v>
@@ -11343,7 +11146,7 @@
         <v>1185</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11351,7 +11154,7 @@
         <v>81136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8">
         <v>44267</v>
@@ -11369,7 +11172,7 @@
         <v>2199</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11377,7 +11180,7 @@
         <v>81171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C14" s="8">
         <v>44267</v>
@@ -11395,7 +11198,7 @@
         <v>5627</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11403,7 +11206,7 @@
         <v>81101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8">
         <v>44267</v>
@@ -11421,7 +11224,7 @@
         <v>2476</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11429,7 +11232,7 @@
         <v>81106</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8">
         <v>44267</v>
@@ -11447,7 +11250,7 @@
         <v>3151</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11455,7 +11258,7 @@
         <v>81191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C17" s="8">
         <v>44267</v>
@@ -11473,7 +11276,7 @@
         <v>598</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11481,7 +11284,7 @@
         <v>81141</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C18" s="8">
         <v>44267</v>
@@ -11499,7 +11302,7 @@
         <v>248</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11507,7 +11310,7 @@
         <v>81146</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8">
         <v>44267</v>
@@ -11525,7 +11328,7 @@
         <v>350</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11533,7 +11336,7 @@
         <v>81196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C20" s="8">
         <v>44267</v>
@@ -11551,7 +11354,7 @@
         <v>6072</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -11559,7 +11362,7 @@
         <v>81151</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8">
         <v>44267</v>
@@ -11577,7 +11380,7 @@
         <v>2923</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -11585,7 +11388,7 @@
         <v>81156</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C22" s="8">
         <v>44267</v>
@@ -11603,7 +11406,7 @@
         <v>3405</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11611,7 +11414,7 @@
         <v>81201</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8">
         <v>44267</v>
@@ -11629,7 +11432,7 @@
         <v>535</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -11637,7 +11440,7 @@
         <v>81161</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8">
         <v>44267</v>
@@ -11655,7 +11458,7 @@
         <v>264</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -11663,7 +11466,7 @@
         <v>81166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C25" s="8">
         <v>44267</v>
@@ -11681,7 +11484,7 @@
         <v>279</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -11689,7 +11492,7 @@
         <v>80291</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C26" s="8">
         <v>44267</v>
@@ -11707,7 +11510,7 @@
         <v>2509</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -11715,7 +11518,7 @@
         <v>80241</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C27" s="8">
         <v>44267</v>
@@ -11733,7 +11536,7 @@
         <v>1069</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11741,7 +11544,7 @@
         <v>80246</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C28" s="8">
         <v>44267</v>
@@ -11759,7 +11562,7 @@
         <v>1440</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11767,7 +11570,7 @@
         <v>80261</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C29" s="8">
         <v>44267</v>
@@ -11785,7 +11588,7 @@
         <v>1419</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11793,7 +11596,7 @@
         <v>80181</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C30" s="8">
         <v>44267</v>
@@ -11811,7 +11614,7 @@
         <v>725</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -11819,7 +11622,7 @@
         <v>80186</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="C31" s="8">
         <v>44267</v>
@@ -11837,7 +11640,7 @@
         <v>694</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -11861,15 +11664,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11877,71 +11680,71 @@
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -11949,31 +11752,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>292</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -11982,12 +11785,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11996,7 +11793,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F249D8A6032D8F44A8695BAB1ED804A6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="943002b5c5718a80327e0c74ae088035">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9cb4ddb6-6161-49c1-81e7-d2838d0e0710" xmlns:ns3="45d1199b-1a3a-4a1d-85f2-919eb909bc88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cad23bb0b9d0a66e149f1cd3daa302f8" ns2:_="" ns3:_="">
     <xsd:import namespace="9cb4ddb6-6161-49c1-81e7-d2838d0e0710"/>
@@ -12197,16 +11994,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A581E2AC-0B26-4F68-ABDD-F550C964CCF1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B734EC-1F3A-4DA8-A001-834BE23F2FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -12214,7 +12008,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{134C4949-550A-4A46-A91C-105FDCFB5F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12231,4 +12025,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A581E2AC-0B26-4F68-ABDD-F550C964CCF1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>